--- a/XuatFile/HoaDon.xlsx
+++ b/XuatFile/HoaDon.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E01E8CBD-9D2C-4613-B393-53805889F62D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C8F569-73AE-4B96-B9F0-8364F9632A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1404" yWindow="2772" windowWidth="17280" windowHeight="9420" xr2:uid="{D103566B-CA7D-4BFC-8B06-5485604723BB}"/>
+    <workbookView xWindow="1404" yWindow="2772" windowWidth="17280" windowHeight="9420" xr2:uid="{42D8E41A-B6A6-41B4-8355-D331B72940AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,16 @@
     <t xml:space="preserve">         Hóa Đơn Sân Banh     </t>
   </si>
   <si>
-    <t>Mã Hóa Đơn: 46</t>
-  </si>
-  <si>
-    <t>Ngày Lập: 7/18/2020 10:19:10 AM</t>
+    <t>Mã Hóa Đơn: 47</t>
+  </si>
+  <si>
+    <t>Ngày Lập: 7/18/2020 3:23:38 PM</t>
   </si>
   <si>
     <t>Mã Nhân Viên: A000</t>
   </si>
   <si>
-    <t>Từ Giờ: 10:13</t>
+    <t>Từ Giờ: 10:17</t>
   </si>
   <si>
     <t>Đến Giờ: 00:00</t>
@@ -58,13 +58,13 @@
     <t>Thành tiền</t>
   </si>
   <si>
-    <t>Tiền Sân: 0.0000</t>
+    <t>Tiền Sân: 960166.6667</t>
   </si>
   <si>
     <t xml:space="preserve">Tổng dịch Vụ: </t>
   </si>
   <si>
-    <t>Tổng Tiền: 0</t>
+    <t>Tổng Tiền: 960,166</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8AC53D-6C54-439E-BBE5-958524DB0FAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AAFA6D-6F35-44C3-8CB8-B7F0CBDAE9E7}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/XuatFile/HoaDon.xlsx
+++ b/XuatFile/HoaDon.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C8F569-73AE-4B96-B9F0-8364F9632A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{939BAC2B-0A92-4F81-8CED-81F86D9316F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1404" yWindow="2772" windowWidth="17280" windowHeight="9420" xr2:uid="{42D8E41A-B6A6-41B4-8355-D331B72940AE}"/>
+    <workbookView xWindow="1404" yWindow="2772" windowWidth="17280" windowHeight="9420" xr2:uid="{EA558426-7382-43AD-9985-EEE4E73E8027}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,16 @@
     <t xml:space="preserve">         Hóa Đơn Sân Banh     </t>
   </si>
   <si>
-    <t>Mã Hóa Đơn: 47</t>
-  </si>
-  <si>
-    <t>Ngày Lập: 7/18/2020 3:23:38 PM</t>
+    <t>Mã Hóa Đơn: 3</t>
+  </si>
+  <si>
+    <t>Ngày Lập: 7/19/2020 4:24:51 PM</t>
   </si>
   <si>
     <t>Mã Nhân Viên: A000</t>
   </si>
   <si>
-    <t>Từ Giờ: 10:17</t>
+    <t>Từ Giờ: 13:26</t>
   </si>
   <si>
     <t>Đến Giờ: 00:00</t>
@@ -58,13 +58,13 @@
     <t>Thành tiền</t>
   </si>
   <si>
-    <t>Tiền Sân: 960166.6667</t>
+    <t>Tiền Sân: 528333.3333</t>
   </si>
   <si>
     <t xml:space="preserve">Tổng dịch Vụ: </t>
   </si>
   <si>
-    <t>Tổng Tiền: 960,166</t>
+    <t>Tổng Tiền: 528,333</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AAFA6D-6F35-44C3-8CB8-B7F0CBDAE9E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA376EB0-6C1A-4BA9-81C9-5C0BA4E598FD}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
